--- a/rekap-baru/2022-03.xlsx
+++ b/rekap-baru/2022-03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7845" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -361,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -396,9 +396,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,30 +418,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,14 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +473,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,7 +488,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -495,15 +496,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,27 +510,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,7 +556,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,61 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,109 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,16 +844,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,26 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,166 +903,175 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,12 +1155,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,9 +1163,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,17 +1225,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1982,7 +1963,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2089,7 +2070,7 @@
       <c r="F6" s="22">
         <v>6</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <f t="shared" ref="G6:G15" si="0">(F6-E6+20)/20</f>
         <v>1.15</v>
       </c>
@@ -2117,7 +2098,7 @@
       <c r="F7" s="22">
         <v>60</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2145,7 +2126,7 @@
       <c r="F8" s="22">
         <v>92</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -2173,7 +2154,7 @@
       <c r="F9" s="22">
         <v>35</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -2201,7 +2182,7 @@
       <c r="F10" s="22">
         <v>63</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
@@ -2229,7 +2210,7 @@
       <c r="F11" s="22">
         <v>11</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2257,7 +2238,7 @@
       <c r="F12" s="22">
         <v>28</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
         <v>0.55</v>
       </c>
@@ -2285,7 +2266,7 @@
       <c r="F13" s="22">
         <v>169</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -2313,7 +2294,7 @@
       <c r="F14" s="22">
         <v>153</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2341,7 +2322,7 @@
       <c r="F15" s="22">
         <v>80</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="32">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -2351,16 +2332,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="34">
         <f>COUNTIF(H6:H15,"")</f>
         <v>4</v>
       </c>
@@ -2419,7 +2400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2434,17 +2415,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2565,11 +2547,11 @@
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -2639,7 +2621,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="39"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="24"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -2748,7 +2730,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2856,7 +2838,7 @@
       <c r="F6" s="19">
         <v>165</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="31">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.7</v>
       </c>
@@ -2884,7 +2866,7 @@
       <c r="F7" s="22">
         <v>221</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2912,7 +2894,7 @@
       <c r="F8" s="22">
         <v>171</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="32">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -2940,7 +2922,7 @@
       <c r="F9" s="22">
         <v>161</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>0.55</v>
       </c>
@@ -2968,7 +2950,7 @@
       <c r="F10" s="22">
         <v>225</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
@@ -2990,13 +2972,13 @@
       <c r="D11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="22">
         <v>197</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="32">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -3024,7 +3006,7 @@
       <c r="F12" s="22">
         <v>170</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
@@ -3034,16 +3016,16 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="34">
         <f>COUNTIF(H6:H12,"")</f>
         <v>1</v>
       </c>
@@ -3101,12 +3083,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/rekap-baru/2022-03.xlsx
+++ b/rekap-baru/2022-03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8505" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -188,48 +188,72 @@
     <t>21.02.030</t>
   </si>
   <si>
+    <t>Al-Baqarah: 245</t>
+  </si>
+  <si>
     <t>Maryam Fikria Tasya</t>
   </si>
   <si>
     <t>21.02.039</t>
   </si>
   <si>
+    <t>Al-Baqarah: 282</t>
+  </si>
+  <si>
     <t>Mila Najiyah</t>
   </si>
   <si>
     <t>21.02.031</t>
   </si>
   <si>
+    <t>An-Nisa: 33</t>
+  </si>
+  <si>
     <t>Najwa Hani Fillah</t>
   </si>
   <si>
     <t>21.02.032</t>
   </si>
   <si>
+    <t>Ali Imran: 194</t>
+  </si>
+  <si>
     <t>Nayla Izzatul Hasanah</t>
   </si>
   <si>
     <t>21.02.033</t>
   </si>
   <si>
+    <t>An-Nisa: 65</t>
+  </si>
+  <si>
     <t>Nida Khalwatus S</t>
   </si>
   <si>
     <t>21.02.034</t>
   </si>
   <si>
+    <t>Ali Imran: 157</t>
+  </si>
+  <si>
     <t>Riska Fitriana Putri</t>
   </si>
   <si>
     <t>21.02.035</t>
   </si>
   <si>
+    <t>Ali Imran: 29</t>
+  </si>
+  <si>
     <t>Safaraz Aufa Rifdah</t>
   </si>
   <si>
     <t>21.02.036</t>
   </si>
   <si>
+    <t>An-Nisa: 101</t>
+  </si>
+  <si>
     <t>Ja'far Asshodiq Habibullah F</t>
   </si>
   <si>
@@ -302,58 +326,70 @@
     <t>20.02.001</t>
   </si>
   <si>
+    <t>An-Nisa: 79</t>
+  </si>
+  <si>
     <t>Siti Khodijah</t>
   </si>
   <si>
     <t>20.02.002</t>
   </si>
   <si>
+    <t>Al-An'am: 81</t>
+  </si>
+  <si>
     <t>Jahrisa Juana</t>
   </si>
   <si>
     <t>20.02.008</t>
   </si>
   <si>
+    <t>Yusuf: 14</t>
+  </si>
+  <si>
     <t>Nurlayli Ubadah</t>
   </si>
   <si>
     <t>20.02.009</t>
   </si>
   <si>
+    <t>At-Taubah: 72</t>
+  </si>
+  <si>
     <t>Nadyne Fathiya Chairinda</t>
   </si>
   <si>
     <t>20.02.010</t>
   </si>
   <si>
+    <t>Al-Maidah: 41</t>
+  </si>
+  <si>
     <t>Salwa</t>
   </si>
   <si>
     <t>20.02.011</t>
   </si>
   <si>
+    <t>Al-An'am: 35</t>
+  </si>
+  <si>
     <t>Muthia Shofia</t>
   </si>
   <si>
     <t>20.02.012</t>
   </si>
   <si>
-    <t>Nada Sahla Syahidah</t>
-  </si>
-  <si>
-    <t>20.02.014</t>
-  </si>
-  <si>
-    <t>Nada Sabila Syahidah</t>
-  </si>
-  <si>
-    <t>20.02.015</t>
+    <t>Al-Isra: 7</t>
   </si>
   <si>
     <t>Inas Afifah</t>
   </si>
   <si>
     <t>20.02.016</t>
+  </si>
+  <si>
+    <t>Ali Imran: 148</t>
   </si>
 </sst>
 </file>
@@ -361,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -396,8 +432,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +452,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,6 +479,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -433,8 +530,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -458,21 +562,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -484,59 +573,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,18 +610,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -598,7 +622,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +682,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,31 +730,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,85 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +864,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -839,6 +899,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,23 +936,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,186 +961,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,17 +1180,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,14 +1203,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1225,7 +1267,17 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1369,9 +1421,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>637540</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>160192</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
@@ -1396,7 +1448,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="4342765" y="4579620"/>
+          <a:off x="4723765" y="4579620"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1593,9 +1645,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>637540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="904875" cy="952500"/>
     <xdr:pic>
@@ -1620,7 +1672,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-297914">
-          <a:off x="5057140" y="4828540"/>
+          <a:off x="5438140" y="4447540"/>
           <a:ext cx="904875" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2070,7 +2122,7 @@
       <c r="F6" s="22">
         <v>6</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="33">
         <f t="shared" ref="G6:G15" si="0">(F6-E6+20)/20</f>
         <v>1.15</v>
       </c>
@@ -2098,7 +2150,7 @@
       <c r="F7" s="22">
         <v>60</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2126,7 +2178,7 @@
       <c r="F8" s="22">
         <v>92</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -2154,7 +2206,7 @@
       <c r="F9" s="22">
         <v>35</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -2182,7 +2234,7 @@
       <c r="F10" s="22">
         <v>63</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
@@ -2210,7 +2262,7 @@
       <c r="F11" s="22">
         <v>11</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2238,7 +2290,7 @@
       <c r="F12" s="22">
         <v>28</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>0.55</v>
       </c>
@@ -2266,7 +2318,7 @@
       <c r="F13" s="22">
         <v>169</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -2294,7 +2346,7 @@
       <c r="F14" s="22">
         <v>153</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2322,7 +2374,7 @@
       <c r="F15" s="22">
         <v>80</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -2332,16 +2384,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="34">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="26">
         <f>COUNTIF(H6:H15,"")</f>
         <v>4</v>
       </c>
@@ -2358,23 +2410,23 @@
     <row r="20" spans="6:8">
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="27"/>
@@ -2440,7 +2492,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2451,8 +2503,8 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="110.25" customHeight="1" spans="1:8">
@@ -2536,110 +2588,226 @@
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11">
+        <f>27+20</f>
+        <v>47</v>
+      </c>
+      <c r="F6" s="22">
+        <v>39</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" ref="G6:G13" si="0">(F6-E6+20)/20</f>
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f t="shared" ref="H6:H13" si="1">IF(G6&gt;=1,"","Kejar Target")</f>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="24">
+        <v>3</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="24">
+        <v>35</v>
+      </c>
+      <c r="F7" s="22">
         <v>48</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11">
+        <v>89</v>
+      </c>
+      <c r="F8" s="22">
+        <v>83</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11">
+        <v>60</v>
+      </c>
+      <c r="F9" s="22">
+        <v>75</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="11">
+        <f>78+20</f>
+        <v>98</v>
+      </c>
+      <c r="F10" s="22">
+        <v>88</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="11">
+        <v>69</v>
+      </c>
+      <c r="F11" s="22">
+        <v>70</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="24">
+        <f>37+20</f>
+        <v>57</v>
+      </c>
+      <c r="F12" s="22">
+        <v>53</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="11">
+        <f>91+20</f>
+        <v>111</v>
+      </c>
+      <c r="F13" s="22">
+        <v>94</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="16" t="s">
@@ -2649,46 +2817,43 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26">
+        <f>COUNTIF(H6:H13,"")</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" s="27"/>
-      <c r="G17" s="28" t="str">
+      <c r="H17" s="28" t="str">
         <f>'1 putra'!H19</f>
         <v>Samarinda, 27 Maret 2022</v>
       </c>
-      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" s="27"/>
-      <c r="G19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="29"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" s="27"/>
-      <c r="G22" s="27" t="s">
+      <c r="H22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="29"/>
     </row>
   </sheetData>
   <sortState ref="A6:H13">
@@ -2699,7 +2864,7 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
@@ -2711,12 +2876,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Belum Tercapai"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2729,8 +2895,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2821,16 +2987,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11">
         <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E6" s="9">
         <v>171</v>
@@ -2838,7 +3004,7 @@
       <c r="F6" s="19">
         <v>165</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="32">
         <f t="shared" ref="G6:G12" si="0">(F6-E6+20)/20</f>
         <v>0.7</v>
       </c>
@@ -2849,16 +3015,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11">
         <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11">
         <v>233</v>
@@ -2866,7 +3032,7 @@
       <c r="F7" s="22">
         <v>221</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2877,16 +3043,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11">
         <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E8" s="11">
         <v>173</v>
@@ -2894,7 +3060,7 @@
       <c r="F8" s="22">
         <v>171</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -2905,16 +3071,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11">
         <v>170</v>
@@ -2922,7 +3088,7 @@
       <c r="F9" s="22">
         <v>161</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>0.55</v>
       </c>
@@ -2933,16 +3099,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E10" s="11">
         <v>236</v>
@@ -2950,7 +3116,7 @@
       <c r="F10" s="22">
         <v>225</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
@@ -2961,24 +3127,24 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C11" s="11">
         <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="F11" s="22">
         <v>197</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -2989,16 +3155,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C12" s="11">
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E12" s="11">
         <v>162</v>
@@ -3006,7 +3172,7 @@
       <c r="F12" s="22">
         <v>170</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
@@ -3016,16 +3182,16 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="34">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="26">
         <f>COUNTIF(H6:H12,"")</f>
         <v>1</v>
       </c>
@@ -3047,7 +3213,7 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" s="27"/>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3100,10 +3266,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3114,8 +3280,8 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="109.5" customHeight="1" spans="1:8">
@@ -3194,196 +3360,280 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="9">
+        <f>79+20</f>
+        <v>99</v>
+      </c>
+      <c r="F6" s="19">
+        <v>90</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G13" si="0">(F6-E6+20)/20</f>
+        <v>0.55</v>
+      </c>
+      <c r="H6" s="21" t="str">
+        <f t="shared" ref="H6:H13" si="1">IF(G6&gt;=1,"","Kejar Target")</f>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="11">
+        <v>141</v>
+      </c>
+      <c r="F7" s="22">
+        <v>137</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="C8" s="11">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
+        <v>239</v>
+      </c>
+      <c r="F8" s="22">
+        <v>236</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="11">
+        <f>181+20</f>
+        <v>201</v>
+      </c>
+      <c r="F9" s="22">
+        <v>198</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="11">
+        <v>128</v>
+      </c>
+      <c r="F10" s="22">
+        <v>114</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="C11" s="11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="11">
+        <f>121+20</f>
+        <v>141</v>
+      </c>
+      <c r="F11" s="22">
+        <v>131</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="13" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="C12" s="11">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="11">
+        <v>288</v>
+      </c>
+      <c r="F12" s="22">
+        <v>282</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="11">
+        <v>84</v>
+      </c>
+      <c r="F13" s="22">
+        <v>68</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Kejar Target</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28" t="str">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26">
+        <f>COUNTIF(H6:H13,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="28" t="str">
         <f>'1 putra'!H19</f>
         <v>Samarinda, 27 Maret 2022</v>
       </c>
-      <c r="H19" s="29"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="27"/>
+      <c r="H19" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" s="27"/>
-      <c r="G21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="6:8">
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="27"/>
-      <c r="G24" s="27" t="s">
+      <c r="H22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3391,24 +3641,25 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G15">
+  <conditionalFormatting sqref="G6:G13">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Belum Tercapai"</formula>
+  <conditionalFormatting sqref="H6:H13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Kejar Target"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
